--- a/Indicators/Indicators_Process_B_7_2/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_2/files/record.xlsx
@@ -688,6 +688,18 @@
       <c r="A15" s="1">
         <v>2020</v>
       </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>29.3</v>
+      </c>
+      <c r="D15">
+        <v>36.6</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
       <c r="F15">
         <v>100</v>
       </c>
